--- a/samples/charts/sbk-rocksdb-read.xlsx
+++ b/samples/charts/sbk-rocksdb-read.xlsx
@@ -47,14 +47,16 @@
     <sheet name="Percentile_99.9" sheetId="39" state="visible" r:id="rId39"/>
     <sheet name="Percentile_99.95" sheetId="40" state="visible" r:id="rId40"/>
     <sheet name="Percentile_99.99" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="Total_Percentiles_1" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="Total_Percentiles_2" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="Total_MB" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="Total_Throughput_MB" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="Total_Throughput_Records" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="Total_Min_Latency" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="Total_Avg_Latency" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="Total_Max_Latency" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Write_Read_Records" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Write_Read_MB" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Total_Percentiles_1" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Total_Percentiles_2" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Total_MB" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Total_Throughput_MB" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="Total_Throughput_Records" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="Total_Min_Latency" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Total_Avg_Latency" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="Total_Max_Latency" sheetId="51" state="visible" r:id="rId51"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -255,7 +257,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$P$2:$P$22</f>
+              <f>'R1'!$P$2:$P$12</f>
             </numRef>
           </val>
         </ser>
@@ -280,7 +282,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$T$2:$T$22</f>
+              <f>'R1'!$T$2:$T$12</f>
             </numRef>
           </val>
         </ser>
@@ -305,7 +307,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$Y$2:$Y$22</f>
+              <f>'R1'!$AE$2:$AE$12</f>
             </numRef>
           </val>
         </ser>
@@ -416,7 +418,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$Z$2:$Z$22</f>
+              <f>'R1'!$AF$2:$AF$12</f>
             </numRef>
           </val>
         </ser>
@@ -441,7 +443,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AN$2:$AN$22</f>
+              <f>'R1'!$AT$2:$AT$12</f>
             </numRef>
           </val>
         </ser>
@@ -552,7 +554,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AN$2:$AN$22</f>
+              <f>'R1'!$AT$2:$AT$12</f>
             </numRef>
           </val>
         </ser>
@@ -577,7 +579,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AO$2:$AO$22</f>
+              <f>'R1'!$AU$2:$AU$12</f>
             </numRef>
           </val>
         </ser>
@@ -602,7 +604,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AP$2:$AP$22</f>
+              <f>'R1'!$AV$2:$AV$12</f>
             </numRef>
           </val>
         </ser>
@@ -627,7 +629,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AQ$2:$AQ$22</f>
+              <f>'R1'!$AW$2:$AW$12</f>
             </numRef>
           </val>
         </ser>
@@ -652,7 +654,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AR$2:$AR$22</f>
+              <f>'R1'!$AX$2:$AX$12</f>
             </numRef>
           </val>
         </ser>
@@ -677,7 +679,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AS$2:$AS$22</f>
+              <f>'R1'!$AY$2:$AY$12</f>
             </numRef>
           </val>
         </ser>
@@ -788,7 +790,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AT$2:$AT$22</f>
+              <f>'R1'!$AZ$2:$AZ$12</f>
             </numRef>
           </val>
         </ser>
@@ -813,7 +815,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AU$2:$AU$22</f>
+              <f>'R1'!$BA$2:$BA$12</f>
             </numRef>
           </val>
         </ser>
@@ -838,7 +840,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AV$2:$AV$22</f>
+              <f>'R1'!$BB$2:$BB$12</f>
             </numRef>
           </val>
         </ser>
@@ -863,7 +865,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AW$2:$AW$22</f>
+              <f>'R1'!$BC$2:$BC$12</f>
             </numRef>
           </val>
         </ser>
@@ -888,7 +890,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AX$2:$AX$22</f>
+              <f>'R1'!$BD$2:$BD$12</f>
             </numRef>
           </val>
         </ser>
@@ -913,7 +915,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AY$2:$AY$22</f>
+              <f>'R1'!$BE$2:$BE$12</f>
             </numRef>
           </val>
         </ser>
@@ -938,7 +940,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AZ$2:$AZ$22</f>
+              <f>'R1'!$BF$2:$BF$12</f>
             </numRef>
           </val>
         </ser>
@@ -963,7 +965,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BA$2:$BA$22</f>
+              <f>'R1'!$BG$2:$BG$12</f>
             </numRef>
           </val>
         </ser>
@@ -988,7 +990,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BB$2:$BB$22</f>
+              <f>'R1'!$BH$2:$BH$12</f>
             </numRef>
           </val>
         </ser>
@@ -1013,7 +1015,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BC$2:$BC$22</f>
+              <f>'R1'!$BI$2:$BI$12</f>
             </numRef>
           </val>
         </ser>
@@ -1124,7 +1126,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$Z$2:$Z$22</f>
+              <f>'R1'!$AF$2:$AF$12</f>
             </numRef>
           </val>
         </ser>
@@ -1235,7 +1237,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AA$2:$AA$22</f>
+              <f>'R1'!$AG$2:$AG$12</f>
             </numRef>
           </val>
         </ser>
@@ -1346,7 +1348,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AB$2:$AB$22</f>
+              <f>'R1'!$AH$2:$AH$12</f>
             </numRef>
           </val>
         </ser>
@@ -1457,7 +1459,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AH$2:$AH$22</f>
+              <f>'R1'!$AN$2:$AN$12</f>
             </numRef>
           </val>
         </ser>
@@ -1568,7 +1570,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AI$2:$AI$22</f>
+              <f>'R1'!$AO$2:$AO$12</f>
             </numRef>
           </val>
         </ser>
@@ -1679,7 +1681,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AJ$2:$AJ$22</f>
+              <f>'R1'!$AP$2:$AP$12</f>
             </numRef>
           </val>
         </ser>
@@ -1790,7 +1792,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AK$2:$AK$22</f>
+              <f>'R1'!$AQ$2:$AQ$12</f>
             </numRef>
           </val>
         </ser>
@@ -1901,7 +1903,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$O$2:$O$22</f>
+              <f>'R1'!$O$2:$O$12</f>
             </numRef>
           </val>
         </ser>
@@ -1926,7 +1928,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$S$2:$S$22</f>
+              <f>'R1'!$S$2:$S$12</f>
             </numRef>
           </val>
         </ser>
@@ -1951,7 +1953,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$X$2:$X$22</f>
+              <f>'R1'!$AD$2:$AD$12</f>
             </numRef>
           </val>
         </ser>
@@ -2062,7 +2064,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AL$2:$AL$22</f>
+              <f>'R1'!$AR$2:$AR$12</f>
             </numRef>
           </val>
         </ser>
@@ -2173,7 +2175,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AM$2:$AM$22</f>
+              <f>'R1'!$AS$2:$AS$12</f>
             </numRef>
           </val>
         </ser>
@@ -2284,7 +2286,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AN$2:$AN$22</f>
+              <f>'R1'!$AT$2:$AT$12</f>
             </numRef>
           </val>
         </ser>
@@ -2395,7 +2397,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AO$2:$AO$22</f>
+              <f>'R1'!$AU$2:$AU$12</f>
             </numRef>
           </val>
         </ser>
@@ -2506,7 +2508,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AP$2:$AP$22</f>
+              <f>'R1'!$AV$2:$AV$12</f>
             </numRef>
           </val>
         </ser>
@@ -2617,7 +2619,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AQ$2:$AQ$22</f>
+              <f>'R1'!$AW$2:$AW$12</f>
             </numRef>
           </val>
         </ser>
@@ -2728,7 +2730,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AR$2:$AR$22</f>
+              <f>'R1'!$AX$2:$AX$12</f>
             </numRef>
           </val>
         </ser>
@@ -2839,7 +2841,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AS$2:$AS$22</f>
+              <f>'R1'!$AY$2:$AY$12</f>
             </numRef>
           </val>
         </ser>
@@ -2950,7 +2952,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AT$2:$AT$22</f>
+              <f>'R1'!$AZ$2:$AZ$12</f>
             </numRef>
           </val>
         </ser>
@@ -3061,7 +3063,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AU$2:$AU$22</f>
+              <f>'R1'!$BA$2:$BA$12</f>
             </numRef>
           </val>
         </ser>
@@ -3172,7 +3174,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AA$2:$AA$22</f>
+              <f>'R1'!$AG$2:$AG$12</f>
             </numRef>
           </val>
         </ser>
@@ -3197,7 +3199,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AH$2:$AH$22</f>
+              <f>'R1'!$AN$2:$AN$12</f>
             </numRef>
           </val>
         </ser>
@@ -3308,7 +3310,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AV$2:$AV$22</f>
+              <f>'R1'!$BB$2:$BB$12</f>
             </numRef>
           </val>
         </ser>
@@ -3419,7 +3421,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AW$2:$AW$22</f>
+              <f>'R1'!$BC$2:$BC$12</f>
             </numRef>
           </val>
         </ser>
@@ -3530,7 +3532,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AX$2:$AX$22</f>
+              <f>'R1'!$BD$2:$BD$12</f>
             </numRef>
           </val>
         </ser>
@@ -3641,7 +3643,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AY$2:$AY$22</f>
+              <f>'R1'!$BE$2:$BE$12</f>
             </numRef>
           </val>
         </ser>
@@ -3752,7 +3754,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AZ$2:$AZ$22</f>
+              <f>'R1'!$BF$2:$BF$12</f>
             </numRef>
           </val>
         </ser>
@@ -3863,7 +3865,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BA$2:$BA$22</f>
+              <f>'R1'!$BG$2:$BG$12</f>
             </numRef>
           </val>
         </ser>
@@ -3974,7 +3976,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BB$2:$BB$22</f>
+              <f>'R1'!$BH$2:$BH$12</f>
             </numRef>
           </val>
         </ser>
@@ -4085,7 +4087,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BC$2:$BC$22</f>
+              <f>'R1'!$BI$2:$BI$12</f>
             </numRef>
           </val>
         </ser>
@@ -4166,7 +4168,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Total Percentiles</a:t>
+              <a:t>Write and Read Records Variations</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -4179,7 +4181,7 @@
           <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>T1_ROCKSDB_2</v>
+            <v>R1-ROCKSDB-WriteRequestRecords</v>
           </tx>
           <spPr>
             <a:ln>
@@ -4194,14 +4196,134 @@
               </a:ln>
             </spPr>
           </marker>
-          <cat>
-            <numRef>
-              <f>'T1'!$AH$1:$AN$1</f>
-            </numRef>
-          </cat>
           <val>
             <numRef>
-              <f>'T1'!$AH$2:$AN$2</f>
+              <f>'R1'!$N$2:$N$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>R1-ROCKSDB-ReadRequestRecords</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$R$2:$R$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>R1-ROCKSDB-WriteResponsePendingRecords</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$V$2:$V$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <v>R1-ROCKSDB-ReadResponsePendingRecords</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$X$2:$X$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <v>R1-ROCKSDB-WriteReadRequestPendingRecords</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$Z$2:$Z$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <v>R1-ROCKSDB-Records</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AC$2:$AC$12</f>
             </numRef>
           </val>
         </ser>
@@ -4223,7 +4345,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Percentiles</a:t>
+                  <a:t>Intervals</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4250,7 +4372,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Latency time in NANOSECONDS</a:t>
+                  <a:t>Write and Read Records</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4282,7 +4404,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Total Percentiles</a:t>
+              <a:t>Write and Read MBs Variations</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -4295,7 +4417,7 @@
           <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>T1_ROCKSDB_2</v>
+            <v>R1-ROCKSDB-WriteRequestMB</v>
           </tx>
           <spPr>
             <a:ln>
@@ -4310,14 +4432,134 @@
               </a:ln>
             </spPr>
           </marker>
-          <cat>
-            <numRef>
-              <f>'T1'!$AN$1:$BC$1</f>
-            </numRef>
-          </cat>
           <val>
             <numRef>
-              <f>'T1'!$AN$2:$BC$2</f>
+              <f>'R1'!$M$2:$M$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>R1-ROCKSDB-ReadRequestMB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$Q$2:$Q$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>R1-ROCKSDB-WriteResponsePendingMB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$U$2:$U$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <v>R1-ROCKSDB-ReadResponsePendingMB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$W$2:$W$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <v>R1-ROCKSDB-WriteReadRequestPendingMB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$Y$2:$Y$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <v>R1-ROCKSDB-Records</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AC$2:$AC$12</f>
             </numRef>
           </val>
         </ser>
@@ -4339,7 +4581,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Percentiles</a:t>
+                  <a:t>Intervals</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4366,7 +4608,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Latency time in NANOSECONDS</a:t>
+                  <a:t>Write and Read MBs</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4428,7 +4670,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AH$2:$AH$22</f>
+              <f>'R1'!$AN$2:$AN$12</f>
             </numRef>
           </val>
         </ser>
@@ -4453,7 +4695,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AI$2:$AI$22</f>
+              <f>'R1'!$AO$2:$AO$12</f>
             </numRef>
           </val>
         </ser>
@@ -4478,7 +4720,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AJ$2:$AJ$22</f>
+              <f>'R1'!$AP$2:$AP$12</f>
             </numRef>
           </val>
         </ser>
@@ -4503,7 +4745,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AK$2:$AK$22</f>
+              <f>'R1'!$AQ$2:$AQ$12</f>
             </numRef>
           </val>
         </ser>
@@ -4528,7 +4770,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AL$2:$AL$22</f>
+              <f>'R1'!$AR$2:$AR$12</f>
             </numRef>
           </val>
         </ser>
@@ -4553,7 +4795,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AM$2:$AM$22</f>
+              <f>'R1'!$AS$2:$AS$12</f>
             </numRef>
           </val>
         </ser>
@@ -4578,7 +4820,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AN$2:$AN$22</f>
+              <f>'R1'!$AT$2:$AT$12</f>
             </numRef>
           </val>
         </ser>
@@ -4648,6 +4890,238 @@
 </file>
 
 <file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Percentiles</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1_ROCKSDB_2</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'T1'!$AN$1:$AT$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'T1'!$AN$2:$AT$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Percentiles</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Latency time in NANOSECONDS</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Percentiles</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1_ROCKSDB_2</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'T1'!$AT$1:$BI$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'T1'!$AT$2:$BI$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Percentiles</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Latency time in NANOSECONDS</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -4707,7 +5181,7 @@
           <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>T1-ROCKSDB-MB</v>
+            <v>T1-ROCKSDB-WriteResponsePendingMB</v>
           </tx>
           <spPr>
             <a:ln>
@@ -4716,7 +5190,58 @@
           </spPr>
           <val>
             <numRef>
-              <f>'T1'!$V$2</f>
+              <f>'T1'!$U$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <v>T1-ROCKSDB-ReadResponsePendingMB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$W$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <v>T1-ROCKSDB-WriteReadRequestPendingMB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$Y$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <v>T1-ROCKSDB-MB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$AB$2</f>
             </numRef>
           </val>
         </ser>
@@ -4786,7 +5311,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -4855,7 +5380,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>'T1'!$Y$2</f>
+              <f>'T1'!$AE$2</f>
             </numRef>
           </val>
         </ser>
@@ -4925,7 +5450,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -4994,7 +5519,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>'T1'!$X$2</f>
+              <f>'T1'!$AD$2</f>
             </numRef>
           </val>
         </ser>
@@ -5064,7 +5589,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -5099,7 +5624,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>'T1'!$AA$2</f>
+              <f>'T1'!$AG$2</f>
             </numRef>
           </val>
         </ser>
@@ -5169,7 +5694,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -5204,7 +5729,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>'T1'!$Z$2</f>
+              <f>'T1'!$AF$2</f>
             </numRef>
           </val>
         </ser>
@@ -5274,7 +5799,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -5309,7 +5834,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>'T1'!$AB$2</f>
+              <f>'T1'!$AH$2</f>
             </numRef>
           </val>
         </ser>
@@ -5421,7 +5946,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$Z$2:$Z$22</f>
+              <f>'R1'!$AF$2:$AF$12</f>
             </numRef>
           </val>
         </ser>
@@ -5446,7 +5971,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AN$2:$AN$22</f>
+              <f>'R1'!$AT$2:$AT$12</f>
             </numRef>
           </val>
         </ser>
@@ -5557,7 +6082,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AN$2:$AN$22</f>
+              <f>'R1'!$AT$2:$AT$12</f>
             </numRef>
           </val>
         </ser>
@@ -5582,7 +6107,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AO$2:$AO$22</f>
+              <f>'R1'!$AU$2:$AU$12</f>
             </numRef>
           </val>
         </ser>
@@ -5607,7 +6132,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AP$2:$AP$22</f>
+              <f>'R1'!$AV$2:$AV$12</f>
             </numRef>
           </val>
         </ser>
@@ -5632,7 +6157,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AQ$2:$AQ$22</f>
+              <f>'R1'!$AW$2:$AW$12</f>
             </numRef>
           </val>
         </ser>
@@ -5657,7 +6182,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AR$2:$AR$22</f>
+              <f>'R1'!$AX$2:$AX$12</f>
             </numRef>
           </val>
         </ser>
@@ -5682,7 +6207,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AS$2:$AS$22</f>
+              <f>'R1'!$AY$2:$AY$12</f>
             </numRef>
           </val>
         </ser>
@@ -5793,7 +6318,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AT$2:$AT$22</f>
+              <f>'R1'!$AZ$2:$AZ$12</f>
             </numRef>
           </val>
         </ser>
@@ -5818,7 +6343,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AU$2:$AU$22</f>
+              <f>'R1'!$BA$2:$BA$12</f>
             </numRef>
           </val>
         </ser>
@@ -5843,7 +6368,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AV$2:$AV$22</f>
+              <f>'R1'!$BB$2:$BB$12</f>
             </numRef>
           </val>
         </ser>
@@ -5868,7 +6393,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AW$2:$AW$22</f>
+              <f>'R1'!$BC$2:$BC$12</f>
             </numRef>
           </val>
         </ser>
@@ -5893,7 +6418,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AX$2:$AX$22</f>
+              <f>'R1'!$BD$2:$BD$12</f>
             </numRef>
           </val>
         </ser>
@@ -5918,7 +6443,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AY$2:$AY$22</f>
+              <f>'R1'!$BE$2:$BE$12</f>
             </numRef>
           </val>
         </ser>
@@ -5943,7 +6468,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AZ$2:$AZ$22</f>
+              <f>'R1'!$BF$2:$BF$12</f>
             </numRef>
           </val>
         </ser>
@@ -5968,7 +6493,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BA$2:$BA$22</f>
+              <f>'R1'!$BG$2:$BG$12</f>
             </numRef>
           </val>
         </ser>
@@ -5993,7 +6518,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BB$2:$BB$22</f>
+              <f>'R1'!$BH$2:$BH$12</f>
             </numRef>
           </val>
         </ser>
@@ -6018,7 +6543,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BC$2:$BC$22</f>
+              <f>'R1'!$BI$2:$BI$12</f>
             </numRef>
           </val>
         </ser>
@@ -6129,7 +6654,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AA$2:$AA$22</f>
+              <f>'R1'!$AG$2:$AG$12</f>
             </numRef>
           </val>
         </ser>
@@ -6154,7 +6679,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AH$2:$AH$22</f>
+              <f>'R1'!$AN$2:$AN$12</f>
             </numRef>
           </val>
         </ser>
@@ -6265,7 +6790,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AH$2:$AH$22</f>
+              <f>'R1'!$AN$2:$AN$12</f>
             </numRef>
           </val>
         </ser>
@@ -6290,7 +6815,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AI$2:$AI$22</f>
+              <f>'R1'!$AO$2:$AO$12</f>
             </numRef>
           </val>
         </ser>
@@ -6315,7 +6840,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AJ$2:$AJ$22</f>
+              <f>'R1'!$AP$2:$AP$12</f>
             </numRef>
           </val>
         </ser>
@@ -6340,7 +6865,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AK$2:$AK$22</f>
+              <f>'R1'!$AQ$2:$AQ$12</f>
             </numRef>
           </val>
         </ser>
@@ -6365,7 +6890,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AL$2:$AL$22</f>
+              <f>'R1'!$AR$2:$AR$12</f>
             </numRef>
           </val>
         </ser>
@@ -6390,7 +6915,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AM$2:$AM$22</f>
+              <f>'R1'!$AS$2:$AS$12</f>
             </numRef>
           </val>
         </ser>
@@ -6415,7 +6940,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AN$2:$AN$22</f>
+              <f>'R1'!$AT$2:$AT$12</f>
             </numRef>
           </val>
         </ser>
@@ -6485,48 +7010,29 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor editAs="oneCell">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
     <from>
-      <col>10</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>6</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <to>
-      <col>19</col>
-      <colOff>285750</colOff>
-      <row>36</row>
-      <rowOff>71438</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Picture 1" descr="sbk-logo.png"/>
-        <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm>
-          <a:off x="6096000" y="1143000"/>
-          <a:ext cx="5772150" cy="5786438"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
     <clientData/>
-  </twoCellAnchor>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -7106,7 +7612,7 @@
       <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="18000000" cy="9000000"/>
+    <ext cx="25200000" cy="25200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -7610,6 +8116,33 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing47.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -7700,7 +8233,7 @@
       <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="25200000" cy="25200000"/>
+    <ext cx="18000000" cy="9000000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -8029,7 +8562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8043,7 +8576,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8243,7 +8775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC22"/>
+  <dimension ref="A1:BI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8271,41 +8803,47 @@
     <col width="18.7109375" customWidth="1" min="18" max="18"/>
     <col width="22.7109375" customWidth="1" min="19" max="19"/>
     <col width="17.7109375" customWidth="1" min="20" max="20"/>
-    <col width="13.7109375" customWidth="1" min="21" max="21"/>
-    <col width="4.7109375" customWidth="1" min="22" max="22"/>
-    <col width="8.7109375" customWidth="1" min="23" max="23"/>
-    <col width="11.7109375" customWidth="1" min="24" max="24"/>
-    <col width="6.7109375" customWidth="1" min="25" max="25"/>
-    <col width="10.7109375" customWidth="1" min="26" max="26"/>
-    <col width="10.7109375" customWidth="1" min="27" max="27"/>
-    <col width="10.7109375" customWidth="1" min="28" max="28"/>
-    <col width="16.7109375" customWidth="1" min="29" max="29"/>
-    <col width="12.7109375" customWidth="1" min="30" max="30"/>
-    <col width="13.7109375" customWidth="1" min="31" max="31"/>
-    <col width="4.7109375" customWidth="1" min="32" max="32"/>
-    <col width="4.7109375" customWidth="1" min="33" max="33"/>
-    <col width="12.7109375" customWidth="1" min="34" max="34"/>
-    <col width="13.7109375" customWidth="1" min="35" max="35"/>
-    <col width="13.7109375" customWidth="1" min="36" max="36"/>
+    <col width="22.7109375" customWidth="1" min="21" max="21"/>
+    <col width="27.7109375" customWidth="1" min="22" max="22"/>
+    <col width="21.7109375" customWidth="1" min="23" max="23"/>
+    <col width="26.7109375" customWidth="1" min="24" max="24"/>
+    <col width="25.7109375" customWidth="1" min="25" max="25"/>
+    <col width="30.7109375" customWidth="1" min="26" max="26"/>
+    <col width="13.7109375" customWidth="1" min="27" max="27"/>
+    <col width="4.7109375" customWidth="1" min="28" max="28"/>
+    <col width="8.7109375" customWidth="1" min="29" max="29"/>
+    <col width="11.7109375" customWidth="1" min="30" max="30"/>
+    <col width="6.7109375" customWidth="1" min="31" max="31"/>
+    <col width="10.7109375" customWidth="1" min="32" max="32"/>
+    <col width="10.7109375" customWidth="1" min="33" max="33"/>
+    <col width="10.7109375" customWidth="1" min="34" max="34"/>
+    <col width="16.7109375" customWidth="1" min="35" max="35"/>
+    <col width="12.7109375" customWidth="1" min="36" max="36"/>
     <col width="13.7109375" customWidth="1" min="37" max="37"/>
-    <col width="13.7109375" customWidth="1" min="38" max="38"/>
-    <col width="13.7109375" customWidth="1" min="39" max="39"/>
-    <col width="13.7109375" customWidth="1" min="40" max="40"/>
+    <col width="4.7109375" customWidth="1" min="38" max="38"/>
+    <col width="4.7109375" customWidth="1" min="39" max="39"/>
+    <col width="12.7109375" customWidth="1" min="40" max="40"/>
     <col width="13.7109375" customWidth="1" min="41" max="41"/>
     <col width="13.7109375" customWidth="1" min="42" max="42"/>
     <col width="13.7109375" customWidth="1" min="43" max="43"/>
     <col width="13.7109375" customWidth="1" min="44" max="44"/>
     <col width="13.7109375" customWidth="1" min="45" max="45"/>
-    <col width="15.7109375" customWidth="1" min="46" max="46"/>
+    <col width="13.7109375" customWidth="1" min="46" max="46"/>
     <col width="13.7109375" customWidth="1" min="47" max="47"/>
-    <col width="15.7109375" customWidth="1" min="48" max="48"/>
+    <col width="13.7109375" customWidth="1" min="48" max="48"/>
     <col width="13.7109375" customWidth="1" min="49" max="49"/>
-    <col width="16.7109375" customWidth="1" min="50" max="50"/>
-    <col width="15.7109375" customWidth="1" min="51" max="51"/>
-    <col width="16.7109375" customWidth="1" min="52" max="52"/>
-    <col width="15.7109375" customWidth="1" min="53" max="53"/>
-    <col width="16.7109375" customWidth="1" min="54" max="54"/>
-    <col width="16.7109375" customWidth="1" min="55" max="55"/>
+    <col width="13.7109375" customWidth="1" min="50" max="50"/>
+    <col width="13.7109375" customWidth="1" min="51" max="51"/>
+    <col width="15.7109375" customWidth="1" min="52" max="52"/>
+    <col width="13.7109375" customWidth="1" min="53" max="53"/>
+    <col width="15.7109375" customWidth="1" min="54" max="54"/>
+    <col width="13.7109375" customWidth="1" min="55" max="55"/>
+    <col width="16.7109375" customWidth="1" min="56" max="56"/>
+    <col width="15.7109375" customWidth="1" min="57" max="57"/>
+    <col width="16.7109375" customWidth="1" min="58" max="58"/>
+    <col width="15.7109375" customWidth="1" min="59" max="59"/>
+    <col width="16.7109375" customWidth="1" min="60" max="60"/>
+    <col width="16.7109375" customWidth="1" min="61" max="61"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8411,175 +8949,205 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
+          <t>WriteResponsePendingMB</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>WriteResponsePendingRecords</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>ReadResponsePendingMB</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>ReadResponsePendingRecords</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>WriteReadRequestPendingMB</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>WriteReadRequestPendingRecords</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
           <t>ReportSeconds</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>MB</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Records</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Records/Sec</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>MB/Sec</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>AvgLatency</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>MinLatency</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>MaxLatency</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>InvalidLatencies</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>LowerDiscard</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>HigherDiscard</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>SLC1</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>SLC2</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>Percentile_5</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>Percentile_10</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>Percentile_20</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>Percentile_25</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>Percentile_30</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>Percentile_40</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>Percentile_50</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Percentile_60</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>Percentile_70</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>Percentile_75</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>Percentile_80</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>Percentile_90</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>Percentile_92.5</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>Percentile_95</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>Percentile_97.5</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>Percentile_99</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>Percentile_99.25</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>Percentile_99.5</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>Percentile_99.75</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>Percentile_99.9</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>Percentile_99.95</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>Percentile_99.99</t>
         </is>
@@ -8645,121 +9213,139 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.9</v>
+        <v>7.3</v>
       </c>
       <c r="R2" t="n">
-        <v>410810</v>
+        <v>764620</v>
       </c>
       <c r="S2" t="n">
-        <v>82144.8</v>
+        <v>152872.8</v>
       </c>
       <c r="T2" t="n">
-        <v>0.78</v>
+        <v>1.46</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12247</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>5</v>
       </c>
-      <c r="V2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="W2" t="n">
-        <v>406063</v>
-      </c>
-      <c r="X2" t="n">
-        <v>81195.60000000001</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>12133.6</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1274</v>
-      </c>
       <c r="AB2" t="n">
-        <v>2218753</v>
+        <v>7.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>752373</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>150424.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF2" t="n">
-        <v>2</v>
+        <v>6485</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>1242</v>
       </c>
       <c r="AH2" t="n">
-        <v>1514</v>
+        <v>4581097</v>
       </c>
       <c r="AI2" t="n">
-        <v>1573</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1683</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1741</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1856</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>7510</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>7708</v>
+        <v>1476</v>
       </c>
       <c r="AO2" t="n">
-        <v>7886</v>
+        <v>1527</v>
       </c>
       <c r="AP2" t="n">
-        <v>8111</v>
+        <v>1604</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8296</v>
+        <v>1638</v>
       </c>
       <c r="AR2" t="n">
-        <v>8865</v>
+        <v>1673</v>
       </c>
       <c r="AS2" t="n">
-        <v>22947</v>
+        <v>1749</v>
       </c>
       <c r="AT2" t="n">
-        <v>39153</v>
+        <v>1844</v>
       </c>
       <c r="AU2" t="n">
-        <v>41674</v>
+        <v>2068</v>
       </c>
       <c r="AV2" t="n">
-        <v>86087</v>
+        <v>3402</v>
       </c>
       <c r="AW2" t="n">
-        <v>140168</v>
+        <v>8084</v>
       </c>
       <c r="AX2" t="n">
-        <v>146121</v>
+        <v>9127</v>
       </c>
       <c r="AY2" t="n">
-        <v>156618</v>
+        <v>12447</v>
       </c>
       <c r="AZ2" t="n">
-        <v>188506</v>
+        <v>13685</v>
       </c>
       <c r="BA2" t="n">
-        <v>233802</v>
+        <v>16248</v>
       </c>
       <c r="BB2" t="n">
-        <v>265487</v>
+        <v>36201</v>
       </c>
       <c r="BC2" t="n">
-        <v>370337</v>
+        <v>71416</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>98421</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>141012</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>173395</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>221991</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>271676</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>445935</v>
       </c>
     </row>
     <row r="3">
@@ -8822,121 +9408,139 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>19.2</v>
+        <v>14.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2012930</v>
+        <v>1524880</v>
       </c>
       <c r="S3" t="n">
-        <v>402504.2</v>
+        <v>304915</v>
       </c>
       <c r="T3" t="n">
-        <v>3.84</v>
+        <v>2.91</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6392</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>5</v>
       </c>
-      <c r="V3" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2012778</v>
-      </c>
-      <c r="X3" t="n">
-        <v>402473.8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2405</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1050</v>
-      </c>
       <c r="AB3" t="n">
-        <v>4714811</v>
+        <v>14.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1530735</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>306085.7</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>3175.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>1216</v>
       </c>
       <c r="AH3" t="n">
-        <v>1278</v>
+        <v>3355704</v>
       </c>
       <c r="AI3" t="n">
-        <v>1314</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1365</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>1387</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>1408</v>
+        <v>1</v>
       </c>
       <c r="AM3" t="n">
-        <v>1448</v>
+        <v>10</v>
       </c>
       <c r="AN3" t="n">
-        <v>1486</v>
+        <v>1475</v>
       </c>
       <c r="AO3" t="n">
-        <v>1528</v>
+        <v>1534</v>
       </c>
       <c r="AP3" t="n">
-        <v>1587</v>
+        <v>1625</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1625</v>
+        <v>1669</v>
       </c>
       <c r="AR3" t="n">
-        <v>1681</v>
+        <v>1718</v>
       </c>
       <c r="AS3" t="n">
-        <v>7516</v>
+        <v>1856</v>
       </c>
       <c r="AT3" t="n">
-        <v>8071</v>
+        <v>2194</v>
       </c>
       <c r="AU3" t="n">
-        <v>8484</v>
+        <v>2353</v>
       </c>
       <c r="AV3" t="n">
-        <v>9366</v>
+        <v>2488</v>
       </c>
       <c r="AW3" t="n">
-        <v>13391</v>
+        <v>2570</v>
       </c>
       <c r="AX3" t="n">
-        <v>16421</v>
+        <v>2685</v>
       </c>
       <c r="AY3" t="n">
-        <v>21905</v>
+        <v>4271</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27884</v>
+        <v>8551</v>
       </c>
       <c r="BA3" t="n">
-        <v>34259</v>
+        <v>9988</v>
       </c>
       <c r="BB3" t="n">
-        <v>40643</v>
+        <v>14248</v>
       </c>
       <c r="BC3" t="n">
-        <v>68828</v>
+        <v>22526</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>25669</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>29694</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>36175</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>50243</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>61077</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>87697</v>
       </c>
     </row>
     <row r="4">
@@ -8999,121 +9603,139 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>21.5</v>
+        <v>25.7</v>
       </c>
       <c r="R4" t="n">
-        <v>2256536</v>
+        <v>2695133</v>
       </c>
       <c r="S4" t="n">
-        <v>451216.6</v>
+        <v>538918.8</v>
       </c>
       <c r="T4" t="n">
-        <v>4.3</v>
+        <v>5.14</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2781</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>5</v>
       </c>
-      <c r="V4" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2258655</v>
-      </c>
-      <c r="X4" t="n">
-        <v>451640.3</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2138</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1101</v>
-      </c>
       <c r="AB4" t="n">
-        <v>2972006</v>
+        <v>25.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>2698744</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>539640.8</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1772</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>1127</v>
       </c>
       <c r="AH4" t="n">
-        <v>1298</v>
+        <v>3234635</v>
       </c>
       <c r="AI4" t="n">
-        <v>1329</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1378</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>1421</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>1459</v>
+        <v>9</v>
       </c>
       <c r="AN4" t="n">
-        <v>1493</v>
+        <v>1224</v>
       </c>
       <c r="AO4" t="n">
-        <v>1532</v>
+        <v>1250</v>
       </c>
       <c r="AP4" t="n">
-        <v>1591</v>
+        <v>1296</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1627</v>
+        <v>1322</v>
       </c>
       <c r="AR4" t="n">
-        <v>1679</v>
+        <v>1352</v>
       </c>
       <c r="AS4" t="n">
-        <v>2013</v>
+        <v>1432</v>
       </c>
       <c r="AT4" t="n">
-        <v>2449</v>
+        <v>1473</v>
       </c>
       <c r="AU4" t="n">
-        <v>8335</v>
+        <v>1513</v>
       </c>
       <c r="AV4" t="n">
-        <v>8876</v>
+        <v>1559</v>
       </c>
       <c r="AW4" t="n">
-        <v>12092</v>
+        <v>1589</v>
       </c>
       <c r="AX4" t="n">
-        <v>13139</v>
+        <v>1634</v>
       </c>
       <c r="AY4" t="n">
-        <v>17282</v>
+        <v>1768</v>
       </c>
       <c r="AZ4" t="n">
-        <v>24813</v>
+        <v>1835</v>
       </c>
       <c r="BA4" t="n">
-        <v>32312</v>
+        <v>2118</v>
       </c>
       <c r="BB4" t="n">
-        <v>37846</v>
+        <v>3561</v>
       </c>
       <c r="BC4" t="n">
-        <v>63675</v>
+        <v>9954</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>15899</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>20071</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>25722</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>32017</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>37025</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>66075</v>
       </c>
     </row>
     <row r="5">
@@ -9176,121 +9798,139 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>24.6</v>
+        <v>28.5</v>
       </c>
       <c r="R5" t="n">
-        <v>2581867</v>
+        <v>2989216</v>
       </c>
       <c r="S5" t="n">
-        <v>516269.7</v>
+        <v>597723.3</v>
       </c>
       <c r="T5" t="n">
-        <v>4.92</v>
+        <v>5.7</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2496</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>5</v>
       </c>
-      <c r="V5" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2581996</v>
-      </c>
-      <c r="X5" t="n">
-        <v>516295.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1860.4</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1126</v>
-      </c>
       <c r="AB5" t="n">
-        <v>3667688</v>
+        <v>28.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2989501</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>597780.3</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1597.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>1118</v>
       </c>
       <c r="AH5" t="n">
-        <v>1260</v>
+        <v>2791592</v>
       </c>
       <c r="AI5" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1343</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>1385</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1415</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1218</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1239</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1273</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1289</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1307</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1347</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1419</v>
+      </c>
+      <c r="AU5" t="n">
         <v>1460</v>
       </c>
-      <c r="AN5" t="n">
-        <v>1504</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1548</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>1601</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>1649</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>1746</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>2085</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2229</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>2445</v>
-      </c>
       <c r="AV5" t="n">
-        <v>7868</v>
+        <v>1494</v>
       </c>
       <c r="AW5" t="n">
-        <v>11460</v>
+        <v>1513</v>
       </c>
       <c r="AX5" t="n">
-        <v>13043</v>
+        <v>1532</v>
       </c>
       <c r="AY5" t="n">
-        <v>15814</v>
+        <v>1585</v>
       </c>
       <c r="AZ5" t="n">
-        <v>20961</v>
+        <v>1609</v>
       </c>
       <c r="BA5" t="n">
-        <v>29417</v>
+        <v>1663</v>
       </c>
       <c r="BB5" t="n">
-        <v>34491</v>
+        <v>1790</v>
       </c>
       <c r="BC5" t="n">
-        <v>58828</v>
+        <v>9016</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>9723</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>16530</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>23301</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>29085</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>33448</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>55506</v>
       </c>
     </row>
     <row r="6">
@@ -9353,121 +9993,139 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>29.4</v>
+        <v>27.7</v>
       </c>
       <c r="R6" t="n">
-        <v>3079123</v>
+        <v>2902524</v>
       </c>
       <c r="S6" t="n">
-        <v>615700.9</v>
+        <v>580388.5</v>
       </c>
       <c r="T6" t="n">
-        <v>5.87</v>
+        <v>5.54</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2280</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>5</v>
       </c>
-      <c r="V6" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3079982</v>
-      </c>
-      <c r="X6" t="n">
-        <v>615872.7</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1555.1</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1033</v>
-      </c>
       <c r="AB6" t="n">
-        <v>3307590</v>
+        <v>27.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>2902740</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>580431.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1645.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>1122</v>
       </c>
       <c r="AH6" t="n">
-        <v>1189</v>
+        <v>2965217</v>
       </c>
       <c r="AI6" t="n">
-        <v>1220</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1262</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>1281</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>1301</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1356</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>1411</v>
+        <v>1228</v>
       </c>
       <c r="AO6" t="n">
-        <v>1449</v>
+        <v>1254</v>
       </c>
       <c r="AP6" t="n">
-        <v>1487</v>
+        <v>1297</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1508</v>
+        <v>1318</v>
       </c>
       <c r="AR6" t="n">
-        <v>1531</v>
+        <v>1341</v>
       </c>
       <c r="AS6" t="n">
-        <v>1594</v>
+        <v>1409</v>
       </c>
       <c r="AT6" t="n">
-        <v>1625</v>
+        <v>1460</v>
       </c>
       <c r="AU6" t="n">
-        <v>1706</v>
+        <v>1499</v>
       </c>
       <c r="AV6" t="n">
-        <v>1864</v>
+        <v>1538</v>
       </c>
       <c r="AW6" t="n">
-        <v>8146</v>
+        <v>1560</v>
       </c>
       <c r="AX6" t="n">
-        <v>8814</v>
+        <v>1588</v>
       </c>
       <c r="AY6" t="n">
-        <v>10167</v>
+        <v>1710</v>
       </c>
       <c r="AZ6" t="n">
-        <v>18391</v>
+        <v>1760</v>
       </c>
       <c r="BA6" t="n">
-        <v>26791</v>
+        <v>1821</v>
       </c>
       <c r="BB6" t="n">
-        <v>31809</v>
+        <v>1950</v>
       </c>
       <c r="BC6" t="n">
-        <v>51776</v>
+        <v>9065</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>10046</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>16255</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>22623</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>28569</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>33287</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>52743</v>
       </c>
     </row>
     <row r="7">
@@ -9530,121 +10188,139 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="R7" t="n">
-        <v>2952457</v>
+        <v>2946669</v>
       </c>
       <c r="S7" t="n">
-        <v>590373.2</v>
+        <v>589214.6</v>
       </c>
       <c r="T7" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2346</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>5</v>
       </c>
-      <c r="V7" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2952236</v>
-      </c>
-      <c r="X7" t="n">
-        <v>590329</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1620.2</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1109</v>
-      </c>
       <c r="AB7" t="n">
-        <v>3398271</v>
+        <v>28.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>2946603</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>589201.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>5.62</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1626.4</v>
       </c>
       <c r="AG7" t="n">
+        <v>1120</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>2779033</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
         <v>8</v>
       </c>
-      <c r="AH7" t="n">
-        <v>1247</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1273</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1316</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1342</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1371</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1419</v>
-      </c>
       <c r="AN7" t="n">
-        <v>1457</v>
+        <v>1235</v>
       </c>
       <c r="AO7" t="n">
-        <v>1494</v>
+        <v>1257</v>
       </c>
       <c r="AP7" t="n">
-        <v>1531</v>
+        <v>1293</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1551</v>
+        <v>1311</v>
       </c>
       <c r="AR7" t="n">
-        <v>1571</v>
+        <v>1330</v>
       </c>
       <c r="AS7" t="n">
-        <v>1629</v>
+        <v>1388</v>
       </c>
       <c r="AT7" t="n">
-        <v>1655</v>
+        <v>1448</v>
       </c>
       <c r="AU7" t="n">
-        <v>1701</v>
+        <v>1484</v>
       </c>
       <c r="AV7" t="n">
-        <v>1825</v>
+        <v>1520</v>
       </c>
       <c r="AW7" t="n">
-        <v>8590</v>
+        <v>1539</v>
       </c>
       <c r="AX7" t="n">
-        <v>9198</v>
+        <v>1559</v>
       </c>
       <c r="AY7" t="n">
-        <v>13833</v>
+        <v>1616</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21147</v>
+        <v>1648</v>
       </c>
       <c r="BA7" t="n">
-        <v>28329</v>
+        <v>1715</v>
       </c>
       <c r="BB7" t="n">
-        <v>33594</v>
+        <v>1838</v>
       </c>
       <c r="BC7" t="n">
-        <v>58811</v>
+        <v>9009</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>9753</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>16384</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>23121</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>29058</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>33575</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>54678</v>
       </c>
     </row>
     <row r="8">
@@ -9707,121 +10383,139 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.8</v>
+        <v>27.1</v>
       </c>
       <c r="R8" t="n">
-        <v>2913296</v>
+        <v>2839943</v>
       </c>
       <c r="S8" t="n">
-        <v>582542.7</v>
+        <v>567874.6</v>
       </c>
       <c r="T8" t="n">
-        <v>5.56</v>
+        <v>5.42</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1601</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
         <v>5</v>
       </c>
-      <c r="V8" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2913634</v>
-      </c>
-      <c r="X8" t="n">
-        <v>582610.3</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1641.2</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1136</v>
-      </c>
       <c r="AB8" t="n">
-        <v>2244215</v>
+        <v>27.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>2840688</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>568023.6</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>5.42</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="AG8" t="n">
+        <v>1132</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2559282</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
         <v>8</v>
       </c>
-      <c r="AH8" t="n">
-        <v>1262</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1285</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1324</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1350</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1383</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1432</v>
-      </c>
       <c r="AN8" t="n">
-        <v>1469</v>
+        <v>1248</v>
       </c>
       <c r="AO8" t="n">
-        <v>1507</v>
+        <v>1276</v>
       </c>
       <c r="AP8" t="n">
-        <v>1544</v>
+        <v>1323</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1563</v>
+        <v>1348</v>
       </c>
       <c r="AR8" t="n">
-        <v>1583</v>
+        <v>1381</v>
       </c>
       <c r="AS8" t="n">
-        <v>1640</v>
+        <v>1451</v>
       </c>
       <c r="AT8" t="n">
-        <v>1669</v>
+        <v>1495</v>
       </c>
       <c r="AU8" t="n">
-        <v>1729</v>
+        <v>1535</v>
       </c>
       <c r="AV8" t="n">
-        <v>1912</v>
+        <v>1577</v>
       </c>
       <c r="AW8" t="n">
-        <v>8787</v>
+        <v>1603</v>
       </c>
       <c r="AX8" t="n">
-        <v>9390</v>
+        <v>1642</v>
       </c>
       <c r="AY8" t="n">
-        <v>15746</v>
+        <v>1795</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21924</v>
+        <v>1843</v>
       </c>
       <c r="BA8" t="n">
-        <v>28297</v>
+        <v>1907</v>
       </c>
       <c r="BB8" t="n">
-        <v>32849</v>
+        <v>2143</v>
       </c>
       <c r="BC8" t="n">
-        <v>52788</v>
+        <v>9017</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>10010</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>15685</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>22171</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>28320</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>33073</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>55427</v>
       </c>
     </row>
     <row r="9">
@@ -9884,121 +10578,139 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>29</v>
+        <v>27.9</v>
       </c>
       <c r="R9" t="n">
-        <v>3041953</v>
+        <v>2920853</v>
       </c>
       <c r="S9" t="n">
-        <v>608268.6</v>
+        <v>584053.4</v>
       </c>
       <c r="T9" t="n">
-        <v>5.8</v>
+        <v>5.57</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1916</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
         <v>5</v>
       </c>
-      <c r="V9" t="n">
-        <v>29</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3041859</v>
-      </c>
-      <c r="X9" t="n">
-        <v>608249.8</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1571.9</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1110</v>
-      </c>
       <c r="AB9" t="n">
-        <v>1955397</v>
+        <v>27.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>2920538</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>583990.4</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1641.1</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>1116</v>
       </c>
       <c r="AH9" t="n">
-        <v>1235</v>
+        <v>2550641</v>
       </c>
       <c r="AI9" t="n">
-        <v>1259</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1296</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>1317</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1346</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1400</v>
+        <v>8</v>
       </c>
       <c r="AN9" t="n">
-        <v>1436</v>
+        <v>1239</v>
       </c>
       <c r="AO9" t="n">
-        <v>1472</v>
+        <v>1263</v>
       </c>
       <c r="AP9" t="n">
-        <v>1508</v>
+        <v>1303</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1527</v>
+        <v>1324</v>
       </c>
       <c r="AR9" t="n">
-        <v>1546</v>
+        <v>1348</v>
       </c>
       <c r="AS9" t="n">
-        <v>1593</v>
+        <v>1421</v>
       </c>
       <c r="AT9" t="n">
-        <v>1612</v>
+        <v>1467</v>
       </c>
       <c r="AU9" t="n">
-        <v>1642</v>
+        <v>1506</v>
       </c>
       <c r="AV9" t="n">
-        <v>1750</v>
+        <v>1544</v>
       </c>
       <c r="AW9" t="n">
-        <v>8267</v>
+        <v>1564</v>
       </c>
       <c r="AX9" t="n">
-        <v>8813</v>
+        <v>1588</v>
       </c>
       <c r="AY9" t="n">
-        <v>9752</v>
+        <v>1693</v>
       </c>
       <c r="AZ9" t="n">
-        <v>18208</v>
+        <v>1748</v>
       </c>
       <c r="BA9" t="n">
-        <v>25469</v>
+        <v>1816</v>
       </c>
       <c r="BB9" t="n">
-        <v>30984</v>
+        <v>1922</v>
       </c>
       <c r="BC9" t="n">
-        <v>46611</v>
+        <v>8921</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>9647</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>15582</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>22198</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>28718</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>33098</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>53991</v>
       </c>
     </row>
     <row r="10">
@@ -10061,121 +10773,139 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.5</v>
+        <v>28.2</v>
       </c>
       <c r="R10" t="n">
-        <v>3096084</v>
+        <v>2957731</v>
       </c>
       <c r="S10" t="n">
-        <v>619092.3</v>
+        <v>591427.8</v>
       </c>
       <c r="T10" t="n">
-        <v>5.9</v>
+        <v>5.64</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2146</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
         <v>5</v>
       </c>
-      <c r="V10" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3096725</v>
-      </c>
-      <c r="X10" t="n">
-        <v>619220.4</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1545.9</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1109</v>
-      </c>
       <c r="AB10" t="n">
-        <v>2057241</v>
+        <v>28.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>2957501</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>591381.8</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1618.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>1122</v>
       </c>
       <c r="AH10" t="n">
-        <v>1221</v>
+        <v>2330778</v>
       </c>
       <c r="AI10" t="n">
-        <v>1244</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1280</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1302</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>1331</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1232</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1255</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1291</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1309</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>1328</v>
+      </c>
+      <c r="AS10" t="n">
         <v>1383</v>
       </c>
-      <c r="AN10" t="n">
-        <v>1419</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1454</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>1489</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>1507</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>1526</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>1572</v>
-      </c>
       <c r="AT10" t="n">
-        <v>1589</v>
+        <v>1447</v>
       </c>
       <c r="AU10" t="n">
+        <v>1483</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1519</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1538</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>1558</v>
+      </c>
+      <c r="AY10" t="n">
         <v>1616</v>
       </c>
-      <c r="AV10" t="n">
-        <v>1703</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>8062</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>8618</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>9288</v>
-      </c>
       <c r="AZ10" t="n">
-        <v>17816</v>
+        <v>1647</v>
       </c>
       <c r="BA10" t="n">
-        <v>24060</v>
+        <v>1713</v>
       </c>
       <c r="BB10" t="n">
-        <v>29082</v>
+        <v>1840</v>
       </c>
       <c r="BC10" t="n">
-        <v>40017</v>
+        <v>8966</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>9653</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>16156</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>22837</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>29136</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>33866</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>53400</v>
       </c>
     </row>
     <row r="11">
@@ -10238,121 +10968,139 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>29.6</v>
+        <v>28.7</v>
       </c>
       <c r="R11" t="n">
-        <v>3100171</v>
+        <v>3014171</v>
       </c>
       <c r="S11" t="n">
-        <v>619909.9</v>
+        <v>601472.8</v>
       </c>
       <c r="T11" t="n">
-        <v>5.91</v>
+        <v>5.74</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2737048</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
         <v>5</v>
       </c>
-      <c r="V11" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3099520</v>
-      </c>
-      <c r="X11" t="n">
-        <v>619779.7</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1543.8</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1094</v>
-      </c>
       <c r="AB11" t="n">
-        <v>1772729</v>
+        <v>2.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>279269</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>55727.7</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1693.7</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>1147</v>
       </c>
       <c r="AH11" t="n">
-        <v>1225</v>
+        <v>1923589</v>
       </c>
       <c r="AI11" t="n">
-        <v>1247</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>1304</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1333</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>1387</v>
+        <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>1423</v>
+        <v>1243</v>
       </c>
       <c r="AO11" t="n">
-        <v>1457</v>
+        <v>1270</v>
       </c>
       <c r="AP11" t="n">
-        <v>1493</v>
+        <v>1314</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1511</v>
+        <v>1338</v>
       </c>
       <c r="AR11" t="n">
-        <v>1530</v>
+        <v>1365</v>
       </c>
       <c r="AS11" t="n">
-        <v>1576</v>
+        <v>1436</v>
       </c>
       <c r="AT11" t="n">
-        <v>1594</v>
+        <v>1481</v>
       </c>
       <c r="AU11" t="n">
-        <v>1622</v>
+        <v>1521</v>
       </c>
       <c r="AV11" t="n">
-        <v>1743</v>
+        <v>1561</v>
       </c>
       <c r="AW11" t="n">
-        <v>7933</v>
+        <v>1584</v>
       </c>
       <c r="AX11" t="n">
-        <v>8593</v>
+        <v>1613</v>
       </c>
       <c r="AY11" t="n">
-        <v>9177</v>
+        <v>1738</v>
       </c>
       <c r="AZ11" t="n">
-        <v>16707</v>
+        <v>1787</v>
       </c>
       <c r="BA11" t="n">
-        <v>23528</v>
+        <v>1848</v>
       </c>
       <c r="BB11" t="n">
-        <v>28702</v>
+        <v>1998</v>
       </c>
       <c r="BC11" t="n">
-        <v>39280</v>
+        <v>9599</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>11533</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>17715</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>23663</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>28553</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>33005</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>53456</v>
       </c>
     </row>
     <row r="12">
@@ -10394,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -10415,40 +11163,40 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.6</v>
+        <v>57.9</v>
       </c>
       <c r="R12" t="n">
-        <v>3105778</v>
+        <v>6072263</v>
       </c>
       <c r="S12" t="n">
-        <v>621031.2</v>
+        <v>608145.5</v>
       </c>
       <c r="T12" t="n">
-        <v>5.92</v>
+        <v>5.8</v>
       </c>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>29.6</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>3106424</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>621160.4</v>
+        <v>8809311</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1540.8</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1113</v>
+        <v>9</v>
       </c>
       <c r="AB12" t="n">
-        <v>2040111</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -10463,1842 +11211,90 @@
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1224</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>1247</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1284</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>1306</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1336</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1386</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>1421</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>1456</v>
+        <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1491</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1508</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>1527</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1572</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>1588</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>1612</v>
+        <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>1681</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>7933</v>
+        <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>8599</v>
+        <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>9164</v>
+        <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>16271</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>23260</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>28415</v>
+        <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>37679</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Rocksdb</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3107919</v>
-      </c>
-      <c r="S13" t="n">
-        <v>621459.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="W13" t="n">
-        <v>3107418</v>
-      </c>
-      <c r="X13" t="n">
-        <v>621359.3</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1539.4</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1106</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>2002449</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1227</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1249</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1285</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1306</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1335</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1388</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1424</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1458</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>1494</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>1511</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>1530</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>1575</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>1591</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>1615</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>1682</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4397</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>8599</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>9106</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>16226</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>23486</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>28741</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>37839</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Rocksdb</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3107611</v>
-      </c>
-      <c r="S14" t="n">
-        <v>621397.9</v>
-      </c>
-      <c r="T14" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="W14" t="n">
-        <v>3107791</v>
-      </c>
-      <c r="X14" t="n">
-        <v>621433.8</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1539.9</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1108</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1780608</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1222</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1246</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1285</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1307</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1334</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1386</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1424</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1459</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>1494</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>1512</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>1531</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>1579</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>1597</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>1624</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>1705</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>4610</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>8564</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>9096</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>16191</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>23097</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>28280</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>37278</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Rocksdb</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3067241</v>
-      </c>
-      <c r="S15" t="n">
-        <v>613325.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
-      <c r="V15" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="W15" t="n">
-        <v>3067253</v>
-      </c>
-      <c r="X15" t="n">
-        <v>613327.8</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1559.7</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1114</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>2040234</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1232</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1257</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1297</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1319</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1347</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1398</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1434</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>1470</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>1506</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>1524</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>1544</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>1592</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>1611</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>1640</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>1751</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>8058</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>8685</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>9287</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>17003</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>23599</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>28615</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>39016</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Rocksdb</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3111593</v>
-      </c>
-      <c r="S16" t="n">
-        <v>622193.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
-      <c r="V16" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="W16" t="n">
-        <v>3111514</v>
-      </c>
-      <c r="X16" t="n">
-        <v>622177.7</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1538.2</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1107</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>2277605</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1226</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1249</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1286</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1307</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1336</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1388</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1425</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1460</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>1495</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>1513</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>1532</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>1577</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>1594</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>1618</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>1683</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>3421</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>8533</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>9024</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>16049</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>22946</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>28164</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>37367</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Rocksdb</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3081009</v>
-      </c>
-      <c r="S17" t="n">
-        <v>616078.6</v>
-      </c>
-      <c r="T17" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V17" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="W17" t="n">
-        <v>3081099</v>
-      </c>
-      <c r="X17" t="n">
-        <v>616096.6</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1553.4</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1112</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1853545</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1228</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1253</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1293</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1315</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1344</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1394</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1430</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1465</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>1500</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1519</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>1538</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>1586</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>1604</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>1631</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>1724</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>8057</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>8662</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>9280</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>16791</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>23415</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>28631</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>38718</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Rocksdb</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3114934</v>
-      </c>
-      <c r="S18" t="n">
-        <v>622862</v>
-      </c>
-      <c r="T18" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
-      <c r="V18" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="W18" t="n">
-        <v>3114721</v>
-      </c>
-      <c r="X18" t="n">
-        <v>622819.4</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1537.3</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1106</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1787208</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1221</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1244</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1281</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1303</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1332</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1383</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1420</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1455</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>1490</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1507</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>1526</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>1574</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>1591</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>1618</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>1695</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>7794</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>8550</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>9097</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>16262</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>23040</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>28291</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>37152</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Rocksdb</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3090624</v>
-      </c>
-      <c r="S19" t="n">
-        <v>618001.1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V19" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="W19" t="n">
-        <v>3090875</v>
-      </c>
-      <c r="X19" t="n">
-        <v>618051.3</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1548.6</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1109</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1893013</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1224</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1248</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1287</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1309</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1339</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1389</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1424</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1459</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>1494</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>1512</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>1531</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>1579</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>1597</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>1624</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>1729</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>8066</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>8625</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>9273</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>17033</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>23359</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>28382</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>37170</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Rocksdb</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3239461</v>
-      </c>
-      <c r="S20" t="n">
-        <v>647762.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
-      <c r="V20" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3239562</v>
-      </c>
-      <c r="X20" t="n">
-        <v>647782.7</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1475.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1005</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>2197460</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>1135</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1164</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1212</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1233</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>1252</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1293</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1355</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1398</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>1434</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>1453</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>1475</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>1533</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>1553</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>1580</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>1640</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>2422</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>8925</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>11964</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>15936</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>22879</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>28242</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>36732</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Rocksdb</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3953884</v>
-      </c>
-      <c r="S21" t="n">
-        <v>750620.9</v>
-      </c>
-      <c r="T21" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W21" t="n">
-        <v>356496</v>
-      </c>
-      <c r="X21" t="n">
-        <v>67678.60000000001</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1422</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1005</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>95779</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1098</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1120</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1152</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1166</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1181</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1214</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1253</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>1308</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>1367</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>1387</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>1405</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>1448</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>1464</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>1491</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>1613</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>3844</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>11733</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>12408</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>17618</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>23843</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>28930</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>39294</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Rocksdb</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="R22" t="n">
-        <v>14749566</v>
-      </c>
-      <c r="S22" t="n">
-        <v>747979.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="U22" t="n">
-        <v>19</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12503,7 +11499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12531,41 +11527,47 @@
     <col width="18.7109375" customWidth="1" min="18" max="18"/>
     <col width="22.7109375" customWidth="1" min="19" max="19"/>
     <col width="17.7109375" customWidth="1" min="20" max="20"/>
-    <col width="13.7109375" customWidth="1" min="21" max="21"/>
-    <col width="6.7109375" customWidth="1" min="22" max="22"/>
-    <col width="9.7109375" customWidth="1" min="23" max="23"/>
-    <col width="11.7109375" customWidth="1" min="24" max="24"/>
-    <col width="6.7109375" customWidth="1" min="25" max="25"/>
-    <col width="10.7109375" customWidth="1" min="26" max="26"/>
-    <col width="10.7109375" customWidth="1" min="27" max="27"/>
-    <col width="10.7109375" customWidth="1" min="28" max="28"/>
-    <col width="16.7109375" customWidth="1" min="29" max="29"/>
-    <col width="12.7109375" customWidth="1" min="30" max="30"/>
-    <col width="13.7109375" customWidth="1" min="31" max="31"/>
-    <col width="4.7109375" customWidth="1" min="32" max="32"/>
-    <col width="4.7109375" customWidth="1" min="33" max="33"/>
-    <col width="12.7109375" customWidth="1" min="34" max="34"/>
-    <col width="13.7109375" customWidth="1" min="35" max="35"/>
-    <col width="13.7109375" customWidth="1" min="36" max="36"/>
+    <col width="22.7109375" customWidth="1" min="21" max="21"/>
+    <col width="27.7109375" customWidth="1" min="22" max="22"/>
+    <col width="21.7109375" customWidth="1" min="23" max="23"/>
+    <col width="26.7109375" customWidth="1" min="24" max="24"/>
+    <col width="25.7109375" customWidth="1" min="25" max="25"/>
+    <col width="30.7109375" customWidth="1" min="26" max="26"/>
+    <col width="13.7109375" customWidth="1" min="27" max="27"/>
+    <col width="6.7109375" customWidth="1" min="28" max="28"/>
+    <col width="9.7109375" customWidth="1" min="29" max="29"/>
+    <col width="11.7109375" customWidth="1" min="30" max="30"/>
+    <col width="6.7109375" customWidth="1" min="31" max="31"/>
+    <col width="10.7109375" customWidth="1" min="32" max="32"/>
+    <col width="10.7109375" customWidth="1" min="33" max="33"/>
+    <col width="10.7109375" customWidth="1" min="34" max="34"/>
+    <col width="16.7109375" customWidth="1" min="35" max="35"/>
+    <col width="12.7109375" customWidth="1" min="36" max="36"/>
     <col width="13.7109375" customWidth="1" min="37" max="37"/>
-    <col width="13.7109375" customWidth="1" min="38" max="38"/>
-    <col width="13.7109375" customWidth="1" min="39" max="39"/>
-    <col width="13.7109375" customWidth="1" min="40" max="40"/>
+    <col width="4.7109375" customWidth="1" min="38" max="38"/>
+    <col width="4.7109375" customWidth="1" min="39" max="39"/>
+    <col width="12.7109375" customWidth="1" min="40" max="40"/>
     <col width="13.7109375" customWidth="1" min="41" max="41"/>
     <col width="13.7109375" customWidth="1" min="42" max="42"/>
     <col width="13.7109375" customWidth="1" min="43" max="43"/>
     <col width="13.7109375" customWidth="1" min="44" max="44"/>
     <col width="13.7109375" customWidth="1" min="45" max="45"/>
-    <col width="15.7109375" customWidth="1" min="46" max="46"/>
+    <col width="13.7109375" customWidth="1" min="46" max="46"/>
     <col width="13.7109375" customWidth="1" min="47" max="47"/>
-    <col width="15.7109375" customWidth="1" min="48" max="48"/>
+    <col width="13.7109375" customWidth="1" min="48" max="48"/>
     <col width="13.7109375" customWidth="1" min="49" max="49"/>
-    <col width="16.7109375" customWidth="1" min="50" max="50"/>
-    <col width="15.7109375" customWidth="1" min="51" max="51"/>
-    <col width="16.7109375" customWidth="1" min="52" max="52"/>
-    <col width="15.7109375" customWidth="1" min="53" max="53"/>
-    <col width="16.7109375" customWidth="1" min="54" max="54"/>
-    <col width="16.7109375" customWidth="1" min="55" max="55"/>
+    <col width="13.7109375" customWidth="1" min="50" max="50"/>
+    <col width="13.7109375" customWidth="1" min="51" max="51"/>
+    <col width="15.7109375" customWidth="1" min="52" max="52"/>
+    <col width="13.7109375" customWidth="1" min="53" max="53"/>
+    <col width="15.7109375" customWidth="1" min="54" max="54"/>
+    <col width="13.7109375" customWidth="1" min="55" max="55"/>
+    <col width="16.7109375" customWidth="1" min="56" max="56"/>
+    <col width="15.7109375" customWidth="1" min="57" max="57"/>
+    <col width="16.7109375" customWidth="1" min="58" max="58"/>
+    <col width="15.7109375" customWidth="1" min="59" max="59"/>
+    <col width="16.7109375" customWidth="1" min="60" max="60"/>
+    <col width="16.7109375" customWidth="1" min="61" max="61"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12671,175 +11673,205 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
+          <t>WriteResponsePendingMB</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>WriteResponsePendingRecords</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>ReadResponsePendingMB</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>ReadResponsePendingRecords</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>WriteReadRequestPendingMB</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>WriteReadRequestPendingRecords</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
           <t>ReportSeconds</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>MB</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Records</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Records/Sec</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>MB/Sec</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>AvgLatency</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>MinLatency</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>MaxLatency</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>InvalidLatencies</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>LowerDiscard</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>HigherDiscard</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>SLC1</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>SLC2</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>Percentile_5</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>Percentile_10</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>Percentile_20</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>Percentile_25</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>Percentile_30</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>Percentile_40</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>Percentile_50</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Percentile_60</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>Percentile_70</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>Percentile_75</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>Percentile_80</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>Percentile_90</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>Percentile_92.5</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>Percentile_95</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>Percentile_97.5</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>Percentile_99</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>Percentile_99.25</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>Percentile_99.5</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>Percentile_99.75</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>Percentile_99.9</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>Percentile_99.95</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>Percentile_99.99</t>
         </is>
@@ -12847,7 +11879,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -12905,121 +11937,139 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>688.3</v>
+        <v>301.6</v>
       </c>
       <c r="R2" t="n">
-        <v>72174847</v>
+        <v>31628003</v>
       </c>
       <c r="S2" t="n">
-        <v>601428</v>
+        <v>527081.5</v>
       </c>
       <c r="T2" t="n">
-        <v>5.74</v>
+        <v>5.03</v>
       </c>
       <c r="U2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>513.3</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>53826601</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>448533.3</v>
+        <v>8809311</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.28</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1703.3</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1005</v>
+        <v>60</v>
       </c>
       <c r="AB2" t="n">
-        <v>4714811</v>
+        <v>217.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>22818692</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>380274.1</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1915.3</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>1116</v>
       </c>
       <c r="AH2" t="n">
-        <v>1220</v>
+        <v>4581097</v>
       </c>
       <c r="AI2" t="n">
-        <v>1249</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1291</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1315</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1344</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1396</v>
+        <v>16</v>
       </c>
       <c r="AN2" t="n">
+        <v>1234</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1260</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1304</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1327</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1355</v>
+      </c>
+      <c r="AS2" t="n">
         <v>1434</v>
       </c>
-      <c r="AO2" t="n">
-        <v>1470</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>1508</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1527</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1549</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>1612</v>
-      </c>
       <c r="AT2" t="n">
-        <v>1647</v>
+        <v>1477</v>
       </c>
       <c r="AU2" t="n">
-        <v>1749</v>
+        <v>1518</v>
       </c>
       <c r="AV2" t="n">
-        <v>2414</v>
+        <v>1561</v>
       </c>
       <c r="AW2" t="n">
-        <v>8943</v>
+        <v>1588</v>
       </c>
       <c r="AX2" t="n">
-        <v>9872</v>
+        <v>1629</v>
       </c>
       <c r="AY2" t="n">
-        <v>15328</v>
+        <v>1827</v>
       </c>
       <c r="AZ2" t="n">
-        <v>22024</v>
+        <v>1981</v>
       </c>
       <c r="BA2" t="n">
-        <v>33391</v>
+        <v>2467</v>
       </c>
       <c r="BB2" t="n">
-        <v>41702</v>
+        <v>6123</v>
       </c>
       <c r="BC2" t="n">
-        <v>130444</v>
+        <v>13700</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>16204</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>21256</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>28217</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>41714</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>60030</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>164856</v>
       </c>
     </row>
   </sheetData>
@@ -13245,7 +12295,7 @@
     <row r="8">
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>SBK Version : 2.0-pre</t>
+          <t>SBK Version : 3.0-pre1</t>
         </is>
       </c>
     </row>
@@ -13476,6 +12526,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/samples/charts/sbk-rocksdb-read.xlsx
+++ b/samples/charts/sbk-rocksdb-read.xlsx
@@ -7010,29 +7010,48 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
     <from>
-      <col>4</col>
+      <col>10</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="18000000" cy="9000000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
+    <to>
+      <col>19</col>
+      <colOff>285750</colOff>
+      <row>36</row>
+      <rowOff>71438</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Picture 1" descr="sbk-logo.png"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="1143000"/>
+          <a:ext cx="5772150" cy="5786438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
     <clientData/>
-  </oneCellAnchor>
+  </twoCellAnchor>
 </wsDr>
 </file>
 
@@ -7612,7 +7631,7 @@
       <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="25200000" cy="25200000"/>
+    <ext cx="18000000" cy="9000000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -8143,6 +8162,33 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing48.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -8233,7 +8279,7 @@
       <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="18000000" cy="9000000"/>
+    <ext cx="25200000" cy="25200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -8562,7 +8608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8576,6 +8622,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
